--- a/data/CSV MAAB/Kulang sa details NOV 16-30 2017.xlsx
+++ b/data/CSV MAAB/Kulang sa details NOV 16-30 2017.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\CSV MAAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\RedCrossMAAB\data\CSV MAAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{203799DA-E95E-46D1-9FB3-F57D72109B4B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="199">
   <si>
     <t>KULANG SA VALID DATE</t>
   </si>
@@ -354,12 +355,282 @@
   </si>
   <si>
     <t>BARNDON</t>
+  </si>
+  <si>
+    <t>NO BDAY</t>
+  </si>
+  <si>
+    <t>ATETEO</t>
+  </si>
+  <si>
+    <t>REAGAN</t>
+  </si>
+  <si>
+    <t>GALLATE</t>
+  </si>
+  <si>
+    <t>PINSAO PROPER BAGUIO CITY</t>
+  </si>
+  <si>
+    <t>PS0347046</t>
+  </si>
+  <si>
+    <t>PREMIER SILVER</t>
+  </si>
+  <si>
+    <t>BALASO</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>PS0347047</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>ROY</t>
+  </si>
+  <si>
+    <t>CABANG</t>
+  </si>
+  <si>
+    <t>JHUDEL</t>
+  </si>
+  <si>
+    <t>ROXAS ELEMENTARY SCHOOL</t>
+  </si>
+  <si>
+    <t>SUAKING</t>
+  </si>
+  <si>
+    <t>ELEIJAH</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
+    <t>COCAL</t>
+  </si>
+  <si>
+    <t>HANS</t>
+  </si>
+  <si>
+    <t>CHARICE</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>CHARLES JAENSEN</t>
+  </si>
+  <si>
+    <t>CELESTINA</t>
+  </si>
+  <si>
+    <t>INOCENCIO</t>
+  </si>
+  <si>
+    <t>ALBIEN DENNIS</t>
+  </si>
+  <si>
+    <t>MARCOS</t>
+  </si>
+  <si>
+    <t>JERVEL KYLE</t>
+  </si>
+  <si>
+    <t>KEILAH GRACE</t>
+  </si>
+  <si>
+    <t>GUINED</t>
+  </si>
+  <si>
+    <t>JAVER</t>
+  </si>
+  <si>
+    <t>GOLEZ</t>
+  </si>
+  <si>
+    <t>JOHN VINCENT</t>
+  </si>
+  <si>
+    <t>JAHNAH</t>
+  </si>
+  <si>
+    <t>ALINAO</t>
+  </si>
+  <si>
+    <t>YSABELLA</t>
+  </si>
+  <si>
+    <t>LELINAO</t>
+  </si>
+  <si>
+    <t>RUSHEEN</t>
+  </si>
+  <si>
+    <t>ESTOCAPIO</t>
+  </si>
+  <si>
+    <t>KHALIL</t>
+  </si>
+  <si>
+    <t>BALINAO</t>
+  </si>
+  <si>
+    <t>DREXTER</t>
+  </si>
+  <si>
+    <t>YANG</t>
+  </si>
+  <si>
+    <t>STACY</t>
+  </si>
+  <si>
+    <t>GERARDO</t>
+  </si>
+  <si>
+    <t>GERALDINE</t>
+  </si>
+  <si>
+    <t>DAPULAZA</t>
+  </si>
+  <si>
+    <t>LIMTCH</t>
+  </si>
+  <si>
+    <t>ERROR ENTERING</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>TYRONE</t>
+  </si>
+  <si>
+    <t>ORDO¥EZ</t>
+  </si>
+  <si>
+    <t>#168 PUROK 4 UPPER PINGET</t>
+  </si>
+  <si>
+    <t>OPE¥A</t>
+  </si>
+  <si>
+    <t>RICA</t>
+  </si>
+  <si>
+    <t>GUISAD VALLEY NATIONAL HIGH SCHOOL</t>
+  </si>
+  <si>
+    <t>CASTA¥EDA</t>
+  </si>
+  <si>
+    <t>KHACEY</t>
+  </si>
+  <si>
+    <t>B.</t>
+  </si>
+  <si>
+    <t>RICA¥A</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
+    <t>V.</t>
+  </si>
+  <si>
+    <t>PINES NATIONAL HIGH SCHOOL</t>
+  </si>
+  <si>
+    <t>MU¥O</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>TIMOG</t>
+  </si>
+  <si>
+    <t>KYLE NI¥A</t>
+  </si>
+  <si>
+    <t>PB0759038</t>
+  </si>
+  <si>
+    <t>MU¥OZ</t>
+  </si>
+  <si>
+    <t>LOUIE II</t>
+  </si>
+  <si>
+    <t>TESDA CAR BAGUIO CITY</t>
+  </si>
+  <si>
+    <t>DUPLICATE ENTRY</t>
+  </si>
+  <si>
+    <t>PADLING</t>
+  </si>
+  <si>
+    <t>CARL JOEL</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
+    <t>#08 PUROK 4 PINSAO</t>
+  </si>
+  <si>
+    <t>FIANYA-AO</t>
+  </si>
+  <si>
+    <t>ZAIRA</t>
+  </si>
+  <si>
+    <t>K.</t>
+  </si>
+  <si>
+    <t>NO IDNUMBER</t>
+  </si>
+  <si>
+    <t>PREMIER PLATINUM</t>
+  </si>
+  <si>
+    <t>BISQUERA</t>
+  </si>
+  <si>
+    <t>MENCHI</t>
+  </si>
+  <si>
+    <t>PB0759014</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>NORIEL</t>
+  </si>
+  <si>
+    <t>TESDA RTC BAGUIO</t>
+  </si>
+  <si>
+    <t>MALECDAN</t>
+  </si>
+  <si>
+    <t>ESTOFANIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,9 +660,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,14 +977,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:N39"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1741,7 +2018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>5150006</v>
       </c>
@@ -1773,7 +2050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>5150007</v>
       </c>
@@ -1805,7 +2082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>5150008</v>
       </c>
@@ -1837,7 +2114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>5150009</v>
       </c>
@@ -1869,7 +2146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>5150010</v>
       </c>
@@ -1901,7 +2178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>5150011</v>
       </c>
@@ -1933,7 +2210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>5150012</v>
       </c>
@@ -1963,6 +2240,1170 @@
       </c>
       <c r="L39" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>5149780</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42">
+        <v>9275654583</v>
+      </c>
+      <c r="L42" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42" s="1">
+        <v>43055</v>
+      </c>
+      <c r="N42" s="1">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43" s="1">
+        <v>43059</v>
+      </c>
+      <c r="N43" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" t="s">
+        <v>65</v>
+      </c>
+      <c r="L44" t="s">
+        <v>7</v>
+      </c>
+      <c r="M44" s="1">
+        <v>43059</v>
+      </c>
+      <c r="N44" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>5150047</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" t="s">
+        <v>124</v>
+      </c>
+      <c r="L45" t="s">
+        <v>7</v>
+      </c>
+      <c r="M45" s="1">
+        <v>43068</v>
+      </c>
+      <c r="N45" s="1">
+        <v>43798</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>5150048</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" t="s">
+        <v>126</v>
+      </c>
+      <c r="H46" t="s">
+        <v>124</v>
+      </c>
+      <c r="L46" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="1">
+        <v>43069</v>
+      </c>
+      <c r="N46" s="1">
+        <v>43799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>5150049</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" t="s">
+        <v>127</v>
+      </c>
+      <c r="H47" t="s">
+        <v>124</v>
+      </c>
+      <c r="L47" t="s">
+        <v>7</v>
+      </c>
+      <c r="M47" s="1">
+        <v>43070</v>
+      </c>
+      <c r="N47" s="1">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>5150050</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" t="s">
+        <v>124</v>
+      </c>
+      <c r="L48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" s="1">
+        <v>43071</v>
+      </c>
+      <c r="N48" s="1">
+        <v>43801</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>5150051</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" t="s">
+        <v>124</v>
+      </c>
+      <c r="L49" t="s">
+        <v>7</v>
+      </c>
+      <c r="M49" s="1">
+        <v>43072</v>
+      </c>
+      <c r="N49" s="1">
+        <v>43802</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>5150052</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" t="s">
+        <v>132</v>
+      </c>
+      <c r="H50" t="s">
+        <v>124</v>
+      </c>
+      <c r="L50" t="s">
+        <v>7</v>
+      </c>
+      <c r="M50" s="1">
+        <v>43073</v>
+      </c>
+      <c r="N50" s="1">
+        <v>43803</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>5150053</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" t="s">
+        <v>133</v>
+      </c>
+      <c r="H51" t="s">
+        <v>124</v>
+      </c>
+      <c r="L51" t="s">
+        <v>7</v>
+      </c>
+      <c r="M51" s="1">
+        <v>43074</v>
+      </c>
+      <c r="N51" s="1">
+        <v>43804</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>5150054</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" t="s">
+        <v>135</v>
+      </c>
+      <c r="H52" t="s">
+        <v>124</v>
+      </c>
+      <c r="L52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M52" s="1">
+        <v>43075</v>
+      </c>
+      <c r="N52" s="1">
+        <v>43805</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>5150055</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" t="s">
+        <v>124</v>
+      </c>
+      <c r="L53" t="s">
+        <v>7</v>
+      </c>
+      <c r="M53" s="1">
+        <v>43076</v>
+      </c>
+      <c r="N53" s="1">
+        <v>43806</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>5150056</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" t="s">
+        <v>138</v>
+      </c>
+      <c r="H54" t="s">
+        <v>124</v>
+      </c>
+      <c r="L54" t="s">
+        <v>7</v>
+      </c>
+      <c r="M54" s="1">
+        <v>43077</v>
+      </c>
+      <c r="N54" s="1">
+        <v>43807</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>5150057</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" t="s">
+        <v>140</v>
+      </c>
+      <c r="H55" t="s">
+        <v>124</v>
+      </c>
+      <c r="L55" t="s">
+        <v>7</v>
+      </c>
+      <c r="M55" s="1">
+        <v>43078</v>
+      </c>
+      <c r="N55" s="1">
+        <v>43808</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>5150058</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" t="s">
+        <v>142</v>
+      </c>
+      <c r="H56" t="s">
+        <v>124</v>
+      </c>
+      <c r="L56" t="s">
+        <v>7</v>
+      </c>
+      <c r="M56" s="1">
+        <v>43079</v>
+      </c>
+      <c r="N56" s="1">
+        <v>43809</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>5150059</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" t="s">
+        <v>143</v>
+      </c>
+      <c r="H57" t="s">
+        <v>124</v>
+      </c>
+      <c r="L57" t="s">
+        <v>7</v>
+      </c>
+      <c r="M57" s="1">
+        <v>43080</v>
+      </c>
+      <c r="N57" s="1">
+        <v>43810</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>5150060</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H58" t="s">
+        <v>124</v>
+      </c>
+      <c r="L58" t="s">
+        <v>7</v>
+      </c>
+      <c r="M58" s="1">
+        <v>43081</v>
+      </c>
+      <c r="N58" s="1">
+        <v>43811</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>5150061</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" t="s">
+        <v>147</v>
+      </c>
+      <c r="H59" t="s">
+        <v>124</v>
+      </c>
+      <c r="L59" t="s">
+        <v>7</v>
+      </c>
+      <c r="M59" s="1">
+        <v>43082</v>
+      </c>
+      <c r="N59" s="1">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>5150062</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>148</v>
+      </c>
+      <c r="F60" t="s">
+        <v>149</v>
+      </c>
+      <c r="H60" t="s">
+        <v>124</v>
+      </c>
+      <c r="L60" t="s">
+        <v>7</v>
+      </c>
+      <c r="M60" s="1">
+        <v>43083</v>
+      </c>
+      <c r="N60" s="1">
+        <v>43813</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>5150063</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>150</v>
+      </c>
+      <c r="F61" t="s">
+        <v>151</v>
+      </c>
+      <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="L61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M61" s="1">
+        <v>43084</v>
+      </c>
+      <c r="N61" s="1">
+        <v>43814</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>5150064</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>152</v>
+      </c>
+      <c r="F62" t="s">
+        <v>153</v>
+      </c>
+      <c r="H62" t="s">
+        <v>124</v>
+      </c>
+      <c r="L62" t="s">
+        <v>7</v>
+      </c>
+      <c r="M62" s="1">
+        <v>43085</v>
+      </c>
+      <c r="N62" s="1">
+        <v>43815</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>5150065</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>154</v>
+      </c>
+      <c r="F63" t="s">
+        <v>155</v>
+      </c>
+      <c r="H63" t="s">
+        <v>124</v>
+      </c>
+      <c r="L63" t="s">
+        <v>7</v>
+      </c>
+      <c r="M63" s="1">
+        <v>43086</v>
+      </c>
+      <c r="N63" s="1">
+        <v>43816</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>5150067</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>156</v>
+      </c>
+      <c r="F64" t="s">
+        <v>157</v>
+      </c>
+      <c r="H64" t="s">
+        <v>124</v>
+      </c>
+      <c r="L64" t="s">
+        <v>7</v>
+      </c>
+      <c r="M64" s="1">
+        <v>43067</v>
+      </c>
+      <c r="N64" s="1">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>5149757</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>159</v>
+      </c>
+      <c r="F67" t="s">
+        <v>160</v>
+      </c>
+      <c r="G67" t="s">
+        <v>161</v>
+      </c>
+      <c r="H67" t="s">
+        <v>162</v>
+      </c>
+      <c r="J67" s="1">
+        <v>36589</v>
+      </c>
+      <c r="K67">
+        <v>17</v>
+      </c>
+      <c r="L67" t="s">
+        <v>7</v>
+      </c>
+      <c r="M67" s="1">
+        <v>43055</v>
+      </c>
+      <c r="N67" s="1">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2386188</v>
+      </c>
+      <c r="B68">
+        <v>5149796</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>163</v>
+      </c>
+      <c r="F68" t="s">
+        <v>164</v>
+      </c>
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" t="s">
+        <v>165</v>
+      </c>
+      <c r="J68" s="1">
+        <v>36616</v>
+      </c>
+      <c r="K68">
+        <v>17</v>
+      </c>
+      <c r="L68" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" s="1">
+        <v>43056</v>
+      </c>
+      <c r="N68" s="1">
+        <v>43421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2386188</v>
+      </c>
+      <c r="B69">
+        <v>5149818</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>166</v>
+      </c>
+      <c r="F69" t="s">
+        <v>167</v>
+      </c>
+      <c r="G69" t="s">
+        <v>168</v>
+      </c>
+      <c r="H69" t="s">
+        <v>165</v>
+      </c>
+      <c r="J69" s="1">
+        <v>36396</v>
+      </c>
+      <c r="K69">
+        <v>18</v>
+      </c>
+      <c r="L69" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" s="1">
+        <v>43056</v>
+      </c>
+      <c r="N69" s="1">
+        <v>43421</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2386150</v>
+      </c>
+      <c r="B70">
+        <v>5149056</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>169</v>
+      </c>
+      <c r="F70" t="s">
+        <v>170</v>
+      </c>
+      <c r="G70" t="s">
+        <v>171</v>
+      </c>
+      <c r="H70" t="s">
+        <v>172</v>
+      </c>
+      <c r="J70" s="1">
+        <v>38090</v>
+      </c>
+      <c r="K70">
+        <v>13</v>
+      </c>
+      <c r="L70" t="s">
+        <v>7</v>
+      </c>
+      <c r="M70" s="1">
+        <v>43056</v>
+      </c>
+      <c r="N70" s="1">
+        <v>43421</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2386150</v>
+      </c>
+      <c r="B71">
+        <v>5149087</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>173</v>
+      </c>
+      <c r="F71" t="s">
+        <v>174</v>
+      </c>
+      <c r="G71" t="s">
+        <v>54</v>
+      </c>
+      <c r="H71" t="s">
+        <v>172</v>
+      </c>
+      <c r="J71" s="1">
+        <v>38055</v>
+      </c>
+      <c r="K71">
+        <v>13</v>
+      </c>
+      <c r="L71" t="s">
+        <v>7</v>
+      </c>
+      <c r="M71" s="1">
+        <v>43056</v>
+      </c>
+      <c r="N71" s="1">
+        <v>43421</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2386150</v>
+      </c>
+      <c r="B72">
+        <v>5149084</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>175</v>
+      </c>
+      <c r="F72" t="s">
+        <v>176</v>
+      </c>
+      <c r="G72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" t="s">
+        <v>172</v>
+      </c>
+      <c r="J72" s="1">
+        <v>37572</v>
+      </c>
+      <c r="K72">
+        <v>15</v>
+      </c>
+      <c r="L72" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" s="1">
+        <v>43056</v>
+      </c>
+      <c r="N72" s="1">
+        <v>43421</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>178</v>
+      </c>
+      <c r="F73" t="s">
+        <v>179</v>
+      </c>
+      <c r="G73" t="s">
+        <v>71</v>
+      </c>
+      <c r="H73" t="s">
+        <v>180</v>
+      </c>
+      <c r="I73">
+        <v>9294949399</v>
+      </c>
+      <c r="J73" s="1">
+        <v>25075</v>
+      </c>
+      <c r="K73">
+        <v>59</v>
+      </c>
+      <c r="L73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M73" s="1">
+        <v>43063</v>
+      </c>
+      <c r="N73" s="1">
+        <v>43428</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>5149860</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" t="s">
+        <v>183</v>
+      </c>
+      <c r="G76" t="s">
+        <v>184</v>
+      </c>
+      <c r="H76" t="s">
+        <v>185</v>
+      </c>
+      <c r="J76" s="2">
+        <v>37512</v>
+      </c>
+      <c r="K76">
+        <v>15</v>
+      </c>
+      <c r="L76" t="s">
+        <v>7</v>
+      </c>
+      <c r="M76" s="2">
+        <v>43055</v>
+      </c>
+      <c r="N76" s="2">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2386188</v>
+      </c>
+      <c r="B77">
+        <v>5149860</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>186</v>
+      </c>
+      <c r="F77" t="s">
+        <v>187</v>
+      </c>
+      <c r="G77" t="s">
+        <v>188</v>
+      </c>
+      <c r="H77" t="s">
+        <v>165</v>
+      </c>
+      <c r="J77" s="2">
+        <v>36112</v>
+      </c>
+      <c r="K77">
+        <v>19</v>
+      </c>
+      <c r="L77" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" s="2">
+        <v>43056</v>
+      </c>
+      <c r="N77" s="2">
+        <v>43421</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>194</v>
+      </c>
+      <c r="F78" t="s">
+        <v>195</v>
+      </c>
+      <c r="G78" t="s">
+        <v>188</v>
+      </c>
+      <c r="H78" t="s">
+        <v>196</v>
+      </c>
+      <c r="I78">
+        <v>9394678522</v>
+      </c>
+      <c r="J78" s="2">
+        <v>30797</v>
+      </c>
+      <c r="K78">
+        <v>33</v>
+      </c>
+      <c r="L78" t="s">
+        <v>21</v>
+      </c>
+      <c r="M78" s="2">
+        <v>43063</v>
+      </c>
+      <c r="N78" s="2">
+        <v>43428</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>193</v>
+      </c>
+      <c r="C79" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>197</v>
+      </c>
+      <c r="F79" t="s">
+        <v>198</v>
+      </c>
+      <c r="G79" t="s">
+        <v>85</v>
+      </c>
+      <c r="J79" s="2">
+        <v>34836</v>
+      </c>
+      <c r="K79">
+        <v>22</v>
+      </c>
+      <c r="L79" t="s">
+        <v>7</v>
+      </c>
+      <c r="M79" s="2">
+        <v>43059</v>
+      </c>
+      <c r="N79" s="2">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>191</v>
+      </c>
+      <c r="F82" t="s">
+        <v>192</v>
+      </c>
+      <c r="I82">
+        <v>91778140022</v>
+      </c>
+      <c r="J82" s="2">
+        <v>23637</v>
+      </c>
+      <c r="K82">
+        <v>53</v>
+      </c>
+      <c r="L82" t="s">
+        <v>21</v>
+      </c>
+      <c r="M82" s="2">
+        <v>43066</v>
+      </c>
+      <c r="N82" s="2">
+        <v>43431</v>
       </c>
     </row>
   </sheetData>
